--- a/meta/16-1-3-1.xlsx
+++ b/meta/16-1-3-1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Метаданные  ЦУР в Excel для Платформы\Метаданные на русском\Национальные\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Working\413\Метаданные для показателей ЦУР\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1AADB28-A828-4FF9-AF80-2222E213B6D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="16.1.1.4a" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>1. Информация об индикаторе</t>
   </si>
@@ -103,9 +104,6 @@
   </si>
   <si>
     <t xml:space="preserve">Цель 16. Содействие построению миролюбивого и открытого общества в интересах устойчивого развития, обеспечение доступа к правосудию для всех и создание эффективных, подотчетных и основанных на широком участии учреждений на всех уровнях </t>
-  </si>
-  <si>
-    <t>Национальный статистический комитет КР (Отдел статистики домашних хозяйств)</t>
   </si>
   <si>
     <t xml:space="preserve">Калымбетова Ы.И. </t>
@@ -129,28 +127,48 @@
 В ходе полевых работ каждую неделю создавались проверочные таблицы для анализа и работы с командами на местах, которые представляли собой адаптированные версии стандартных таблиц, созданных Программой КОМП.</t>
   </si>
   <si>
-    <t>По доходу, возрасту, территории, местности, образованию, статусу инвалидности.</t>
-  </si>
-  <si>
-    <t>Национальная платформа отчетности ЦУР КР: https://sustainabledevelopment-kyrgyzstan.github.io</t>
-  </si>
-  <si>
     <t>16.1.3.1</t>
   </si>
   <si>
-    <t>16.1.3.1 Доля женщин в возрасте 15-49 лет, в последние 12 месяцев, подвергшихся физического насилия: ограбления или нападения</t>
-  </si>
-  <si>
     <t xml:space="preserve">www.stat.gov.kg </t>
   </si>
   <si>
-    <t xml:space="preserve">yryskan.kalymbetova@gmail.com </t>
+    <t>Национальный статистический комитет КР (Управление статистики домашних хозяйств)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ykalymbetova@stat.kg </t>
+  </si>
+  <si>
+    <t>16.1.3.1 Доля женщин в возрасте 15-49 лет, в последние 12 месяцев, подвергшихся физическому насилию: ограблению или нападению</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Доля женщин в возрасте 15–49 лет, подвергшихся физическому насилию (включая ограбление или нападение) за последние 12 месяцев — это процент женщин указанной возрастной группы, которые сообщили, что стали жертвами одного или нескольких актов физического насилия в течение одного года, предшествующего моменту опроса.
+</t>
+  </si>
+  <si>
+    <t>Физическое насилие - любое использование физической силы, в результате которого причиняется или может быть причинён вред здоровью. Включает удары, толчки, удушение, нападение с оружием и другие формы насильственного физического воздействия.                                      Ограбление - насильственное или угрожающее насилием изъятие имущества у человека, как правило, в общественном месте. Это преступление включает угрозу или фактическое применение силы.                                                                      Нападение - акт насильственного физического воздействия на лицо, направленный на причинение вреда. 
+________________________________________</t>
+  </si>
+  <si>
+    <t>КОМП 2023, 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стандартизированная методология UNICEF обеспечивает сопоставимость данных между странами и регионами. Методология включает четкие инструкции по выборке, формулировке вопросов, сбору и обработке данных. </t>
+  </si>
+  <si>
+    <t>https://sustainabledevelopment-kyrgyzstan.github.io/16/</t>
+  </si>
+  <si>
+    <t>По территории, месту проживания, уровню дохода, возрасту, уровню образования и статусу инвалидности.</t>
+  </si>
+  <si>
+    <t>Процентная оля женщин в возрасте 15–49 лет, подвергшихся физическому насилию (включая ограбление или нападение) за последние 12 месяцев .</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -202,7 +220,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -277,13 +295,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -314,18 +345,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -542,11 +575,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -561,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="66" customHeight="1" x14ac:dyDescent="0.2">
@@ -572,7 +605,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -580,11 +613,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>38</v>
       </c>
     </row>
@@ -594,44 +627,44 @@
       </c>
       <c r="B5" s="6"/>
     </row>
-    <row r="6" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>39</v>
+      <c r="B10" s="13" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -640,24 +673,28 @@
       </c>
       <c r="B11" s="6"/>
     </row>
-    <row r="12" spans="1:2" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="96.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="9"/>
+      <c r="B13" s="9" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="14" spans="1:2" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -671,7 +708,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="181.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -679,7 +716,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.2">
@@ -688,13 +725,15 @@
       </c>
       <c r="B18" s="6"/>
     </row>
-    <row r="19" spans="1:2" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
@@ -705,7 +744,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -714,37 +753,40 @@
       </c>
       <c r="B22" s="6"/>
     </row>
-    <row r="23" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26" spans="1:2" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>36</v>
+      <c r="B26" s="15" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="12"/>
-      <c r="B27" s="13"/>
+      <c r="B27" s="12"/>
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1723,10 +1765,11 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1"/>
-    <hyperlink ref="B8" r:id="rId2"/>
+    <hyperlink ref="B10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B8" r:id="rId2" xr:uid="{D209A374-4284-45CC-BA91-8ED0D9A41411}"/>
+    <hyperlink ref="B26" r:id="rId3" xr:uid="{9B3E9C09-6EA1-4645-ABE2-98E96C0CCF8E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>